--- a/data/input/absenteeism_data_30.xlsx
+++ b/data/input/absenteeism_data_30.xlsx
@@ -476,248 +476,248 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29380</v>
+        <v>71953</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diogo Viana</t>
+          <t>Vitor Hugo Duarte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45098</v>
+        <v>45102</v>
       </c>
       <c r="G2" t="n">
-        <v>10404.22</v>
+        <v>11833.89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>75412</v>
+        <v>84046</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pedro Henrique Mendes</t>
+          <t>Kevin da Costa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45093</v>
+        <v>45080</v>
       </c>
       <c r="G3" t="n">
-        <v>9850.82</v>
+        <v>10276.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>60658</v>
+        <v>28031</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maria Fernanda Moura</t>
+          <t>Dr. Vinicius Oliveira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45083</v>
+        <v>45088</v>
       </c>
       <c r="G4" t="n">
-        <v>9435.58</v>
+        <v>2843.77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19416</v>
+        <v>66498</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maria Julia Ramos</t>
+          <t>Lucca Rezende</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45081</v>
+        <v>45096</v>
       </c>
       <c r="G5" t="n">
-        <v>3130.98</v>
+        <v>8284.27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>37749</v>
+        <v>83712</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Natália Gomes</t>
+          <t>João Azevedo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45094</v>
+        <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>9674.620000000001</v>
+        <v>3998.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>41751</v>
+        <v>90537</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cecília Duarte</t>
+          <t>Sarah Carvalho</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45085</v>
+        <v>45105</v>
       </c>
       <c r="G7" t="n">
-        <v>9582.58</v>
+        <v>8171.79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>43462</v>
+        <v>18674</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Olivia Silva</t>
+          <t>Maria Eduarda Correia</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45090</v>
+        <v>45102</v>
       </c>
       <c r="G8" t="n">
-        <v>3736.63</v>
+        <v>10630.92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>15243</v>
+        <v>31265</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bruna Rezende</t>
+          <t>Cecília Santos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45085</v>
+        <v>45091</v>
       </c>
       <c r="G9" t="n">
-        <v>3263.23</v>
+        <v>12434.27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>79587</v>
+        <v>66115</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fernando da Mota</t>
+          <t>Enzo Gabriel da Conceição</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -729,19 +729,19 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45086</v>
       </c>
       <c r="G10" t="n">
-        <v>8839.09</v>
+        <v>8232.66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>91696</v>
+        <v>740</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Juliana Azevedo</t>
+          <t>Yuri Nunes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45093</v>
+        <v>45085</v>
       </c>
       <c r="G11" t="n">
-        <v>8928.5</v>
+        <v>6045.22</v>
       </c>
     </row>
   </sheetData>
